--- a/error_counts/biodivner/Meta-Llama-3.1-70B-Instruct/similarity_3_parsed_output/tokens_missed.xlsx
+++ b/error_counts/biodivner/Meta-Llama-3.1-70B-Instruct/similarity_3_parsed_output/tokens_missed.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C230"/>
+  <dimension ref="A1:C229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3558,22 +3558,22 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Species name</t>
+          <t>Animal Species</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C209" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Animal Species</t>
+          <t>Herbivore</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -3582,18 +3582,18 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Herbivore</t>
+          <t>Capacity</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C211" t="n">
@@ -3603,12 +3603,12 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Capacity</t>
+          <t>Island</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C212" t="n">
@@ -3618,12 +3618,12 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Island</t>
+          <t>landscape scales</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C213" t="n">
@@ -3633,12 +3633,12 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>landscape scales</t>
+          <t>plant communities</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C214" t="n">
@@ -3648,12 +3648,12 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>plant communities</t>
+          <t>diversity gradient</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C215" t="n">
@@ -3663,12 +3663,12 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>diversity gradient</t>
+          <t>Park</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C216" t="n">
@@ -3678,12 +3678,12 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Park</t>
+          <t>Animal</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C217" t="n">
@@ -3693,27 +3693,27 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Animal</t>
+          <t>mutualistic antÃ¢â‚¬â€œhemipteran interactions</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C218" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>mutualistic antÃ¢â‚¬â€œhemipteran interactions</t>
+          <t>leaf chewer herbivory</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C219" t="n">
@@ -3723,27 +3723,27 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>leaf chewer herbivory</t>
+          <t>shrub position</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C220" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>shrub position</t>
+          <t>vegetation layer</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C221" t="n">
@@ -3753,12 +3753,12 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>vegetation layer</t>
+          <t>stratum</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C222" t="n">
@@ -3768,12 +3768,12 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>stratum</t>
+          <t>thick layers</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C223" t="n">
@@ -3783,12 +3783,12 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>thick layers</t>
+          <t>above ground</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C224" t="n">
@@ -3798,12 +3798,12 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>above ground</t>
+          <t>drought-sensitive species</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C225" t="n">
@@ -3813,12 +3813,12 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>drought-sensitive species</t>
+          <t>Leipzig Deutscher Platz 5e Leipzig Germany</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C226" t="n">
@@ -3828,12 +3828,12 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Leipzig Deutscher Platz 5e Leipzig Germany</t>
+          <t>ph</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C227" t="n">
@@ -3843,12 +3843,12 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>ph</t>
+          <t>bathyal habitat</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C228" t="n">
@@ -3858,30 +3858,15 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>bathyal habitat</t>
+          <t>Microbial biomass</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C229" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="inlineStr">
-        <is>
-          <t>Microbial biomass</t>
-        </is>
-      </c>
-      <c r="B230" t="inlineStr">
-        <is>
-          <t>QUALITY</t>
-        </is>
-      </c>
-      <c r="C230" t="n">
         <v>1</v>
       </c>
     </row>
